--- a/car_price.xlsx
+++ b/car_price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kmaun\data\Git\Project\vehicle_sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C52F34-99B7-4C27-A9B8-1ECC3887A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA02BF0-FFCB-4B82-8ACB-475C3B433711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{93350E34-2814-477A-9D86-9DAC5C996294}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$H$741</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,9 +40,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -50,30 +52,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="773">
   <si>
     <t>Released Price of the car</t>
   </si>
@@ -2385,22 +2373,13 @@
     <t>Guide to Purchase Used Car in USA</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Min Max scaling</t>
-  </si>
-  <si>
     <t>Used Car Price Valuation</t>
   </si>
   <si>
     <t>Percentile</t>
   </si>
   <si>
-    <t>Unit</t>
+    <t>)</t>
   </si>
 </sst>
 </file>
@@ -3118,68 +3097,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>8</v>
-    <v>0</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC201034-795B-4FF2-99A9-EB6497AE36A6}" name="car_data3" displayName="car_data3" ref="A1:H781" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="8">
@@ -3530,10 +3447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5160ECAA-6973-486C-BA0C-6C1C5A3E5801}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P789"/>
+  <dimension ref="A1:O789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -3584,7 +3501,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O6" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3752,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="12">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>3</v>
@@ -3766,12 +3683,12 @@
       <c r="L16" s="24"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="12">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>4</v>
@@ -3785,12 +3702,12 @@
       <c r="L17" s="24"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>768</v>
       </c>
       <c r="B18" s="12">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
@@ -3804,7 +3721,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -3813,11 +3730,8 @@
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="28" t="s">
         <v>9</v>
       </c>
@@ -3830,17 +3744,14 @@
       <c r="K20" s="23"/>
       <c r="L20" s="24"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="7">
         <f>$B$23*0.75</f>
-        <v>22500.000000000004</v>
+        <v>14000</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>4</v>
@@ -3853,17 +3764,14 @@
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="7">
         <f>$B$23*0.9</f>
-        <v>27000.000000000004</v>
+        <v>16800</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>4</v>
@@ -3876,17 +3784,14 @@
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="7">
         <f>(1-(B16/150000)) * B17</f>
-        <v>30000.000000000004</v>
+        <v>18666.666666666668</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
@@ -3899,25 +3804,14 @@
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="4">
-        <v>5</v>
-      </c>
-      <c r="O23" s="4" t="e">
-        <f>_xlfn.PERCENTILE.INC(N19:N23,N23)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="P23" s="4" t="e">
-        <f>PERCENTILE(N19:N23,N21)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="7">
         <f>$B$23*1.1</f>
-        <v>33000.000000000007</v>
+        <v>20533.333333333336</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
@@ -3930,18 +3824,14 @@
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="22"/>
-      <c r="P24" s="4" t="e" cm="1">
-        <f t="array" ref="P24">per</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="7">
         <f>$B$23*1.25</f>
-        <v>37500.000000000007</v>
+        <v>23333.333333333336</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
@@ -3955,7 +3845,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -3965,16 +3855,40 @@
       <c r="L26" s="24"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>767</v>
       </c>
       <c r="B27" s="34">
-        <f>1-(B18-B21)/(B25-B21)</f>
-        <v>0.83333333333333359</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>772</v>
+        <f>(1 - (B18 - B21) / (B25 - B21)) * 10 * 0.4 +
+_xlfn.PERCENTRANK.EXC(car_data3[feature], _xlfn.XLOOKUP(N7, car_data3[Car name], car_data3[feature])) * 10 * 0.2 +
+_xlfn.PERCENTRANK.EXC(car_data3[sold_cars], _xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[sold_cars])) * 10 * 0.2 +
+IFERROR(
+    IF(OR(_xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 4, _xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 8),
+        "10",
+        IF(OR(_xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 9, _xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 3),
+            "8",
+            IF(OR(_xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 2, _xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 5),
+                "6",
+                IF(OR(_xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 12, _xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 11),
+                    "4",
+                    IF(_xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 6,
+                        "2",
+                        IF(_xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 0,
+                            "1",
+                            "0"
+                        )
+                    )
+                )
+            )
+        )
+    ),
+    0
+) * 0.2</f>
+        <v>7.8474285714285719</v>
+      </c>
+      <c r="C27" s="4">
+        <v>40</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -3985,19 +3899,19 @@
       <c r="L27" s="24"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B28" s="33">
         <f>-(1-(B18/B23))</f>
-        <v>-0.16666666666666674</v>
+        <v>-0.19642857142857151</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>IF(B28&gt;0,"Overvalued",IF(B28&lt;0,"Undervalued", "Fair Price"))</f>
         <v>Undervalued</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -4005,22 +3919,8 @@
       <c r="K28" s="23"/>
       <c r="L28" s="24"/>
       <c r="M28" s="22"/>
-      <c r="P28" s="4" t="e" cm="1">
-        <f t="array" ref="P28">per</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B29" s="4">
-        <f>_xlfn.PERCENTRANK.EXC(car_data3[feature],_xlfn.XLOOKUP(N7,car_data3[Car name],car_data3[feature])) *10</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="C29" s="4">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -4030,17 +3930,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B30" s="4">
-        <f>_xlfn.PERCENTRANK.EXC(car_data3[sold_cars],_xlfn.XLOOKUP($N$7,car_data3[Car name],car_data3[sold_cars])) * 10</f>
-        <v>9.98</v>
-      </c>
-      <c r="C30" s="4">
-        <v>20</v>
-      </c>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -4050,11 +3940,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B31" s="5"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -4064,7 +3950,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -4074,7 +3960,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -4084,7 +3970,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -4094,7 +3980,7 @@
       <c r="L34" s="24"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -4104,11 +3990,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="4" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="C36" ca="1">Data!C:C</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -4118,7 +4000,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -4128,7 +4010,7 @@
       <c r="L37" s="24"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -4138,7 +4020,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -4148,7 +4030,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="22"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
@@ -4158,7 +4040,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="22"/>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
@@ -4168,7 +4050,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="22"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -4178,7 +4060,7 @@
       <c r="L42" s="24"/>
       <c r="M42" s="22"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -4188,7 +4070,7 @@
       <c r="L43" s="24"/>
       <c r="M43" s="22"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -4198,7 +4080,7 @@
       <c r="L44" s="24"/>
       <c r="M44" s="22"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -4208,7 +4090,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="22"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
@@ -4218,7 +4100,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="22"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -4228,7 +4110,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="22"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
@@ -4238,7 +4120,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="22"/>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
@@ -4248,7 +4130,7 @@
       <c r="L49" s="24"/>
       <c r="M49" s="22"/>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
@@ -4258,7 +4140,7 @@
       <c r="L50" s="24"/>
       <c r="M50" s="22"/>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
@@ -4268,7 +4150,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="22"/>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
@@ -4278,7 +4160,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="22"/>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
@@ -4288,7 +4170,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="22"/>
     </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
@@ -4298,7 +4180,10 @@
       <c r="L54" s="24"/>
       <c r="M54" s="22"/>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B55" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
@@ -4308,7 +4193,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="22"/>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
@@ -4318,7 +4203,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="22"/>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
@@ -4328,7 +4213,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="22"/>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
@@ -4338,7 +4223,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="22"/>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
@@ -4348,7 +4233,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="22"/>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
@@ -4358,7 +4243,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="22"/>
     </row>
-    <row r="61" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
@@ -4368,7 +4253,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="22"/>
     </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
@@ -4378,7 +4263,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="22"/>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
@@ -4388,7 +4273,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="22"/>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
@@ -11669,12 +11554,12 @@
       <formula>B28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:M789">
+  <conditionalFormatting sqref="F9:M27 F29:M789 G28:M28">
     <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:M789">
+  <conditionalFormatting sqref="F10:M27 F29:M789 G28:M28">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>N7</formula>
     </cfRule>
@@ -11717,7 +11602,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H781"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A223" zoomScale="125" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -32043,10 +31928,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FCA09-08BA-4F55-A79A-367B42405110}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I741"/>
   <sheetViews>
-    <sheetView topLeftCell="A712" workbookViewId="0">
-      <selection sqref="A1:H741"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H715" sqref="H715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32081,7 +31967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -32111,7 +31997,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -32141,7 +32027,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -32171,7 +32057,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -32201,7 +32087,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -32231,7 +32117,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -32261,7 +32147,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -32291,7 +32177,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -32321,7 +32207,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -32351,7 +32237,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -32381,7 +32267,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -32411,7 +32297,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -32441,7 +32327,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -32471,7 +32357,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -32501,7 +32387,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -32531,7 +32417,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -32561,7 +32447,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -32591,7 +32477,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -32621,7 +32507,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -32651,7 +32537,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -32681,7 +32567,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -32711,7 +32597,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -32741,7 +32627,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -32771,7 +32657,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -32801,7 +32687,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -32831,7 +32717,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -32861,7 +32747,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -32891,7 +32777,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -32921,7 +32807,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -32951,7 +32837,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -32981,7 +32867,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -33011,7 +32897,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -33041,7 +32927,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -33071,7 +32957,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -33101,7 +32987,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -33131,7 +33017,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -33161,7 +33047,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -33191,7 +33077,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -33221,7 +33107,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -33251,7 +33137,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -33281,7 +33167,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -33311,7 +33197,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -33341,7 +33227,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -33371,7 +33257,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -33401,7 +33287,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -33431,7 +33317,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -33461,7 +33347,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -33491,7 +33377,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -33521,7 +33407,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -33551,7 +33437,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -33581,7 +33467,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -33611,7 +33497,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -33641,7 +33527,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -33671,7 +33557,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -33701,7 +33587,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -33731,7 +33617,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -33761,7 +33647,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -33791,7 +33677,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -33821,7 +33707,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -33851,7 +33737,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -33881,7 +33767,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -33911,7 +33797,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -33941,7 +33827,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -33971,7 +33857,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -34001,7 +33887,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -34031,7 +33917,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -34061,7 +33947,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -34091,7 +33977,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -34121,7 +34007,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -34151,7 +34037,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -34181,7 +34067,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -34211,7 +34097,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -34241,7 +34127,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -34271,7 +34157,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -34301,7 +34187,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -34331,7 +34217,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -34361,7 +34247,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -34391,7 +34277,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -34421,7 +34307,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -34451,7 +34337,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -34481,7 +34367,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -34511,7 +34397,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -34541,7 +34427,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -34571,7 +34457,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -34601,7 +34487,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -34631,7 +34517,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -34661,7 +34547,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -34691,7 +34577,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -34721,7 +34607,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -34751,7 +34637,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -34781,7 +34667,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -34811,7 +34697,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -34841,7 +34727,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -34871,7 +34757,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -34901,7 +34787,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -34931,7 +34817,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -34961,7 +34847,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -34991,7 +34877,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -35021,7 +34907,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -35051,7 +34937,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -35081,7 +34967,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -35111,7 +34997,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -35141,7 +35027,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -35171,7 +35057,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -35201,7 +35087,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -35231,7 +35117,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -35261,7 +35147,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -35291,7 +35177,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -35321,7 +35207,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -35351,7 +35237,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -35381,7 +35267,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -35411,7 +35297,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -35441,7 +35327,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -35471,7 +35357,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -35501,7 +35387,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -35531,7 +35417,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -35561,7 +35447,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -35591,7 +35477,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -35621,7 +35507,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -35651,7 +35537,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -35681,7 +35567,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -35711,7 +35597,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -35741,7 +35627,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -35771,7 +35657,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -35801,7 +35687,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -35831,7 +35717,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -35861,7 +35747,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -35891,7 +35777,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -35921,7 +35807,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -35951,7 +35837,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -35981,7 +35867,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -36011,7 +35897,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -36041,7 +35927,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -36071,7 +35957,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -36101,7 +35987,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -36131,7 +36017,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -36161,7 +36047,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -36191,7 +36077,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -36221,7 +36107,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -36251,7 +36137,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -36281,7 +36167,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -36311,7 +36197,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -36341,7 +36227,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -36371,7 +36257,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -36401,7 +36287,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -36431,7 +36317,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -36461,7 +36347,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -36491,7 +36377,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -36521,7 +36407,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -36551,7 +36437,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -36581,7 +36467,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -36611,7 +36497,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -36641,7 +36527,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -36671,7 +36557,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -36701,7 +36587,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>167</v>
       </c>
@@ -36731,7 +36617,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -36761,7 +36647,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -36791,7 +36677,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -36821,7 +36707,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -36851,7 +36737,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -36881,7 +36767,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -36911,7 +36797,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -36941,7 +36827,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -36971,7 +36857,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -37001,7 +36887,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -37031,7 +36917,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -37061,7 +36947,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>179</v>
       </c>
@@ -37091,7 +36977,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>180</v>
       </c>
@@ -37121,7 +37007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -37151,7 +37037,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -37181,7 +37067,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -37211,7 +37097,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -37241,7 +37127,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -37271,7 +37157,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -37301,7 +37187,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -37331,7 +37217,7 @@
         <v>0.748</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -37361,7 +37247,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -37391,7 +37277,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -37421,7 +37307,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -37451,7 +37337,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -37481,7 +37367,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -37511,7 +37397,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>194</v>
       </c>
@@ -37541,7 +37427,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>195</v>
       </c>
@@ -37571,7 +37457,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>196</v>
       </c>
@@ -37601,7 +37487,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>197</v>
       </c>
@@ -37631,7 +37517,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>198</v>
       </c>
@@ -37661,7 +37547,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -37691,7 +37577,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -37721,7 +37607,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>201</v>
       </c>
@@ -37751,7 +37637,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -37781,7 +37667,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>203</v>
       </c>
@@ -37811,7 +37697,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -37841,7 +37727,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>205</v>
       </c>
@@ -37871,7 +37757,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>206</v>
       </c>
@@ -37901,7 +37787,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -37931,7 +37817,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>208</v>
       </c>
@@ -37961,7 +37847,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -37991,7 +37877,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>210</v>
       </c>
@@ -38021,7 +37907,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>211</v>
       </c>
@@ -38051,7 +37937,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>212</v>
       </c>
@@ -38081,7 +37967,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>213</v>
       </c>
@@ -38111,7 +37997,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -38141,7 +38027,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>215</v>
       </c>
@@ -38201,7 +38087,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>217</v>
       </c>
@@ -38231,7 +38117,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>218</v>
       </c>
@@ -38261,7 +38147,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>219</v>
       </c>
@@ -38291,7 +38177,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>220</v>
       </c>
@@ -38321,7 +38207,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>221</v>
       </c>
@@ -38351,7 +38237,7 @@
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>222</v>
       </c>
@@ -38381,7 +38267,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>223</v>
       </c>
@@ -38411,7 +38297,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>224</v>
       </c>
@@ -38471,7 +38357,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>226</v>
       </c>
@@ -38501,7 +38387,7 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>227</v>
       </c>
@@ -38531,7 +38417,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>228</v>
       </c>
@@ -38561,7 +38447,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>229</v>
       </c>
@@ -38591,7 +38477,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>230</v>
       </c>
@@ -38621,7 +38507,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>231</v>
       </c>
@@ -38651,7 +38537,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -38681,7 +38567,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>233</v>
       </c>
@@ -38711,7 +38597,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>234</v>
       </c>
@@ -38771,7 +38657,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>236</v>
       </c>
@@ -38801,7 +38687,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>237</v>
       </c>
@@ -38831,7 +38717,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>238</v>
       </c>
@@ -38891,7 +38777,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -38921,7 +38807,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -38951,7 +38837,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -38981,7 +38867,7 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>243</v>
       </c>
@@ -39011,7 +38897,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>244</v>
       </c>
@@ -39041,7 +38927,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>245</v>
       </c>
@@ -39071,7 +38957,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>246</v>
       </c>
@@ -39101,7 +38987,7 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>247</v>
       </c>
@@ -39131,7 +39017,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>248</v>
       </c>
@@ -39161,7 +39047,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>249</v>
       </c>
@@ -39191,7 +39077,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>250</v>
       </c>
@@ -39221,7 +39107,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>251</v>
       </c>
@@ -39251,7 +39137,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>252</v>
       </c>
@@ -39281,7 +39167,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>253</v>
       </c>
@@ -39311,7 +39197,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>254</v>
       </c>
@@ -39341,7 +39227,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>255</v>
       </c>
@@ -39371,7 +39257,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>256</v>
       </c>
@@ -39401,7 +39287,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>257</v>
       </c>
@@ -39431,7 +39317,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -39461,7 +39347,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>259</v>
       </c>
@@ -39491,7 +39377,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>260</v>
       </c>
@@ -39521,7 +39407,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>261</v>
       </c>
@@ -39551,7 +39437,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>262</v>
       </c>
@@ -39581,7 +39467,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>263</v>
       </c>
@@ -39611,7 +39497,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -39641,7 +39527,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>265</v>
       </c>
@@ -39671,7 +39557,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>266</v>
       </c>
@@ -39701,7 +39587,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>267</v>
       </c>
@@ -39731,7 +39617,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>268</v>
       </c>
@@ -39761,7 +39647,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -39791,7 +39677,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>270</v>
       </c>
@@ -39821,7 +39707,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>271</v>
       </c>
@@ -39851,7 +39737,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>272</v>
       </c>
@@ -39881,7 +39767,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>273</v>
       </c>
@@ -39911,7 +39797,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>274</v>
       </c>
@@ -39941,7 +39827,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>275</v>
       </c>
@@ -39971,7 +39857,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>276</v>
       </c>
@@ -40001,7 +39887,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>277</v>
       </c>
@@ -40031,7 +39917,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>278</v>
       </c>
@@ -40061,7 +39947,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>279</v>
       </c>
@@ -40091,7 +39977,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>280</v>
       </c>
@@ -40121,7 +40007,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>281</v>
       </c>
@@ -40151,7 +40037,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>282</v>
       </c>
@@ -40181,7 +40067,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>283</v>
       </c>
@@ -40211,7 +40097,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>284</v>
       </c>
@@ -40241,7 +40127,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>285</v>
       </c>
@@ -40271,7 +40157,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>286</v>
       </c>
@@ -40301,7 +40187,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -40331,7 +40217,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>288</v>
       </c>
@@ -40361,7 +40247,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>289</v>
       </c>
@@ -40391,7 +40277,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>290</v>
       </c>
@@ -40421,7 +40307,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>291</v>
       </c>
@@ -40451,7 +40337,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>292</v>
       </c>
@@ -40481,7 +40367,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -40511,7 +40397,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>294</v>
       </c>
@@ -40541,7 +40427,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>295</v>
       </c>
@@ -40571,7 +40457,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>296</v>
       </c>
@@ -40601,7 +40487,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -40631,7 +40517,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>298</v>
       </c>
@@ -40661,7 +40547,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -40691,7 +40577,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>300</v>
       </c>
@@ -40721,7 +40607,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>301</v>
       </c>
@@ -40751,7 +40637,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>302</v>
       </c>
@@ -40781,7 +40667,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>303</v>
       </c>
@@ -40811,7 +40697,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>304</v>
       </c>
@@ -40841,7 +40727,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>305</v>
       </c>
@@ -40871,7 +40757,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>306</v>
       </c>
@@ -40901,7 +40787,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>307</v>
       </c>
@@ -40931,7 +40817,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>308</v>
       </c>
@@ -40961,7 +40847,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>309</v>
       </c>
@@ -40991,7 +40877,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>310</v>
       </c>
@@ -41021,7 +40907,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>311</v>
       </c>
@@ -41051,7 +40937,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>312</v>
       </c>
@@ -41081,7 +40967,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>313</v>
       </c>
@@ -41111,7 +40997,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -41141,7 +41027,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>315</v>
       </c>
@@ -41171,7 +41057,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>316</v>
       </c>
@@ -41201,7 +41087,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>317</v>
       </c>
@@ -41231,7 +41117,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>318</v>
       </c>
@@ -41261,7 +41147,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>319</v>
       </c>
@@ -41291,7 +41177,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>320</v>
       </c>
@@ -41321,7 +41207,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>321</v>
       </c>
@@ -41351,7 +41237,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>322</v>
       </c>
@@ -41381,7 +41267,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>323</v>
       </c>
@@ -41411,7 +41297,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>324</v>
       </c>
@@ -41441,7 +41327,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>325</v>
       </c>
@@ -41471,7 +41357,7 @@
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>326</v>
       </c>
@@ -41501,7 +41387,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>327</v>
       </c>
@@ -41531,7 +41417,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>328</v>
       </c>
@@ -41561,7 +41447,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>329</v>
       </c>
@@ -41591,7 +41477,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>330</v>
       </c>
@@ -41621,7 +41507,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>331</v>
       </c>
@@ -41651,7 +41537,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>332</v>
       </c>
@@ -41681,7 +41567,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>333</v>
       </c>
@@ -41711,7 +41597,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>334</v>
       </c>
@@ -41741,7 +41627,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>335</v>
       </c>
@@ -41771,7 +41657,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>336</v>
       </c>
@@ -41801,7 +41687,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>337</v>
       </c>
@@ -41831,7 +41717,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>338</v>
       </c>
@@ -41861,7 +41747,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>339</v>
       </c>
@@ -41891,7 +41777,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>340</v>
       </c>
@@ -41921,7 +41807,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>341</v>
       </c>
@@ -41951,7 +41837,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>342</v>
       </c>
@@ -41981,7 +41867,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>343</v>
       </c>
@@ -42011,7 +41897,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>344</v>
       </c>
@@ -42041,7 +41927,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>345</v>
       </c>
@@ -42071,7 +41957,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>346</v>
       </c>
@@ -42101,7 +41987,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>347</v>
       </c>
@@ -42131,7 +42017,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>348</v>
       </c>
@@ -42161,7 +42047,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>349</v>
       </c>
@@ -42191,7 +42077,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>350</v>
       </c>
@@ -42221,7 +42107,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>351</v>
       </c>
@@ -42251,7 +42137,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>352</v>
       </c>
@@ -42281,7 +42167,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>353</v>
       </c>
@@ -42311,7 +42197,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>354</v>
       </c>
@@ -42341,7 +42227,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>355</v>
       </c>
@@ -42371,7 +42257,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>356</v>
       </c>
@@ -42401,7 +42287,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>357</v>
       </c>
@@ -42431,7 +42317,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>358</v>
       </c>
@@ -42461,7 +42347,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>359</v>
       </c>
@@ -42491,7 +42377,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>360</v>
       </c>
@@ -42521,7 +42407,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>361</v>
       </c>
@@ -42551,7 +42437,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>362</v>
       </c>
@@ -42581,7 +42467,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>363</v>
       </c>
@@ -42611,7 +42497,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>364</v>
       </c>
@@ -42641,7 +42527,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>365</v>
       </c>
@@ -42671,7 +42557,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>366</v>
       </c>
@@ -42701,7 +42587,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>367</v>
       </c>
@@ -42731,7 +42617,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>368</v>
       </c>
@@ -42761,7 +42647,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>369</v>
       </c>
@@ -42791,7 +42677,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>370</v>
       </c>
@@ -42821,7 +42707,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>371</v>
       </c>
@@ -42851,7 +42737,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>372</v>
       </c>
@@ -42881,7 +42767,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>373</v>
       </c>
@@ -42911,7 +42797,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>374</v>
       </c>
@@ -42941,7 +42827,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>375</v>
       </c>
@@ -42971,7 +42857,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>376</v>
       </c>
@@ -43001,7 +42887,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>377</v>
       </c>
@@ -43031,7 +42917,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>378</v>
       </c>
@@ -43061,7 +42947,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>379</v>
       </c>
@@ -43091,7 +42977,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>380</v>
       </c>
@@ -43121,7 +43007,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>381</v>
       </c>
@@ -43151,7 +43037,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>382</v>
       </c>
@@ -43181,7 +43067,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>383</v>
       </c>
@@ -43211,7 +43097,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>384</v>
       </c>
@@ -43241,7 +43127,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>385</v>
       </c>
@@ -43271,7 +43157,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>386</v>
       </c>
@@ -43301,7 +43187,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>387</v>
       </c>
@@ -43331,7 +43217,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>388</v>
       </c>
@@ -43361,7 +43247,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>389</v>
       </c>
@@ -43391,7 +43277,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>390</v>
       </c>
@@ -43421,7 +43307,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>391</v>
       </c>
@@ -43451,7 +43337,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>392</v>
       </c>
@@ -43481,7 +43367,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>393</v>
       </c>
@@ -43511,7 +43397,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>394</v>
       </c>
@@ -43541,7 +43427,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>395</v>
       </c>
@@ -43571,7 +43457,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>396</v>
       </c>
@@ -43601,7 +43487,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>397</v>
       </c>
@@ -43631,7 +43517,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>398</v>
       </c>
@@ -43661,7 +43547,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>399</v>
       </c>
@@ -43691,7 +43577,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>400</v>
       </c>
@@ -43721,7 +43607,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>401</v>
       </c>
@@ -43751,7 +43637,7 @@
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>402</v>
       </c>
@@ -43781,7 +43667,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>403</v>
       </c>
@@ -43811,7 +43697,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>404</v>
       </c>
@@ -43841,7 +43727,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>405</v>
       </c>
@@ -43871,7 +43757,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>406</v>
       </c>
@@ -43901,7 +43787,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>407</v>
       </c>
@@ -43931,7 +43817,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>408</v>
       </c>
@@ -43961,7 +43847,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>409</v>
       </c>
@@ -43991,7 +43877,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>410</v>
       </c>
@@ -44021,7 +43907,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>411</v>
       </c>
@@ -44051,7 +43937,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>412</v>
       </c>
@@ -44081,7 +43967,7 @@
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>413</v>
       </c>
@@ -44111,7 +43997,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>414</v>
       </c>
@@ -44141,7 +44027,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>415</v>
       </c>
@@ -44171,7 +44057,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>416</v>
       </c>
@@ -44201,7 +44087,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>417</v>
       </c>
@@ -44231,7 +44117,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>418</v>
       </c>
@@ -44261,7 +44147,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>419</v>
       </c>
@@ -44291,7 +44177,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>420</v>
       </c>
@@ -44321,7 +44207,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>421</v>
       </c>
@@ -44351,7 +44237,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>422</v>
       </c>
@@ -44381,7 +44267,7 @@
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>423</v>
       </c>
@@ -44411,7 +44297,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>424</v>
       </c>
@@ -44441,7 +44327,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>425</v>
       </c>
@@ -44471,7 +44357,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>426</v>
       </c>
@@ -44501,7 +44387,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>427</v>
       </c>
@@ -44531,7 +44417,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>428</v>
       </c>
@@ -44561,7 +44447,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>429</v>
       </c>
@@ -44591,7 +44477,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>430</v>
       </c>
@@ -44621,7 +44507,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>431</v>
       </c>
@@ -44651,7 +44537,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>432</v>
       </c>
@@ -44681,7 +44567,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>433</v>
       </c>
@@ -44711,7 +44597,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>434</v>
       </c>
@@ -44741,7 +44627,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>435</v>
       </c>
@@ -44771,7 +44657,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>436</v>
       </c>
@@ -44801,7 +44687,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>437</v>
       </c>
@@ -44831,7 +44717,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>438</v>
       </c>
@@ -44861,7 +44747,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>439</v>
       </c>
@@ -44891,7 +44777,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>440</v>
       </c>
@@ -44921,7 +44807,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>441</v>
       </c>
@@ -44951,7 +44837,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>442</v>
       </c>
@@ -44981,7 +44867,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>443</v>
       </c>
@@ -45011,7 +44897,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>444</v>
       </c>
@@ -45041,7 +44927,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>445</v>
       </c>
@@ -45071,7 +44957,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>446</v>
       </c>
@@ -45101,7 +44987,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>447</v>
       </c>
@@ -45131,7 +45017,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>448</v>
       </c>
@@ -45161,7 +45047,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>449</v>
       </c>
@@ -45191,7 +45077,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>450</v>
       </c>
@@ -45221,7 +45107,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>451</v>
       </c>
@@ -45251,7 +45137,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>452</v>
       </c>
@@ -45281,7 +45167,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>453</v>
       </c>
@@ -45311,7 +45197,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>454</v>
       </c>
@@ -45341,7 +45227,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>455</v>
       </c>
@@ -45371,7 +45257,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>456</v>
       </c>
@@ -45401,7 +45287,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>457</v>
       </c>
@@ -45431,7 +45317,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>458</v>
       </c>
@@ -45461,7 +45347,7 @@
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>459</v>
       </c>
@@ -45491,7 +45377,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>460</v>
       </c>
@@ -45521,7 +45407,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>461</v>
       </c>
@@ -45551,7 +45437,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>462</v>
       </c>
@@ -45581,7 +45467,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>463</v>
       </c>
@@ -45611,7 +45497,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>464</v>
       </c>
@@ -45641,7 +45527,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>465</v>
       </c>
@@ -45671,7 +45557,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>466</v>
       </c>
@@ -45701,7 +45587,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>467</v>
       </c>
@@ -45731,7 +45617,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>468</v>
       </c>
@@ -45761,7 +45647,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>469</v>
       </c>
@@ -45791,7 +45677,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>470</v>
       </c>
@@ -45821,7 +45707,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>471</v>
       </c>
@@ -45851,7 +45737,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>472</v>
       </c>
@@ -45881,7 +45767,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>473</v>
       </c>
@@ -45911,7 +45797,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>474</v>
       </c>
@@ -45941,7 +45827,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>475</v>
       </c>
@@ -45971,7 +45857,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>476</v>
       </c>
@@ -46001,7 +45887,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>477</v>
       </c>
@@ -46031,7 +45917,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>478</v>
       </c>
@@ -46061,7 +45947,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>479</v>
       </c>
@@ -46091,7 +45977,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>480</v>
       </c>
@@ -46121,7 +46007,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>481</v>
       </c>
@@ -46151,7 +46037,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>482</v>
       </c>
@@ -46181,7 +46067,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>483</v>
       </c>
@@ -46211,7 +46097,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>484</v>
       </c>
@@ -46241,7 +46127,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>485</v>
       </c>
@@ -46271,7 +46157,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>486</v>
       </c>
@@ -46301,7 +46187,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>487</v>
       </c>
@@ -46331,7 +46217,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>488</v>
       </c>
@@ -46361,7 +46247,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>489</v>
       </c>
@@ -46391,7 +46277,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>490</v>
       </c>
@@ -46421,7 +46307,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>491</v>
       </c>
@@ -46451,7 +46337,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>492</v>
       </c>
@@ -46481,7 +46367,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>493</v>
       </c>
@@ -46511,7 +46397,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>494</v>
       </c>
@@ -46541,7 +46427,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>495</v>
       </c>
@@ -46571,7 +46457,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>496</v>
       </c>
@@ -46601,7 +46487,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>497</v>
       </c>
@@ -46631,7 +46517,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>498</v>
       </c>
@@ -46661,7 +46547,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>499</v>
       </c>
@@ -46691,7 +46577,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>500</v>
       </c>
@@ -46721,7 +46607,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>501</v>
       </c>
@@ -46751,7 +46637,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>502</v>
       </c>
@@ -46781,7 +46667,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>503</v>
       </c>
@@ -46811,7 +46697,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>504</v>
       </c>
@@ -46841,7 +46727,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>505</v>
       </c>
@@ -46871,7 +46757,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>506</v>
       </c>
@@ -46901,7 +46787,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>507</v>
       </c>
@@ -46931,7 +46817,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>508</v>
       </c>
@@ -46961,7 +46847,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>509</v>
       </c>
@@ -46991,7 +46877,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>510</v>
       </c>
@@ -47021,7 +46907,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>511</v>
       </c>
@@ -47051,7 +46937,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>512</v>
       </c>
@@ -47081,7 +46967,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>513</v>
       </c>
@@ -47111,7 +46997,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>514</v>
       </c>
@@ -47141,7 +47027,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>515</v>
       </c>
@@ -47171,7 +47057,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>516</v>
       </c>
@@ -47201,7 +47087,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>517</v>
       </c>
@@ -47231,7 +47117,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>518</v>
       </c>
@@ -47261,7 +47147,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>519</v>
       </c>
@@ -47291,7 +47177,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>520</v>
       </c>
@@ -47321,7 +47207,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>521</v>
       </c>
@@ -47351,7 +47237,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>522</v>
       </c>
@@ -47381,7 +47267,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>523</v>
       </c>
@@ -47411,7 +47297,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>524</v>
       </c>
@@ -47441,7 +47327,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>525</v>
       </c>
@@ -47471,7 +47357,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>526</v>
       </c>
@@ -47501,7 +47387,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>527</v>
       </c>
@@ -47531,7 +47417,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>528</v>
       </c>
@@ -47561,7 +47447,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>529</v>
       </c>
@@ -47591,7 +47477,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>530</v>
       </c>
@@ -47621,7 +47507,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>531</v>
       </c>
@@ -47651,7 +47537,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>532</v>
       </c>
@@ -47681,7 +47567,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>533</v>
       </c>
@@ -47711,7 +47597,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>534</v>
       </c>
@@ -47741,7 +47627,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>535</v>
       </c>
@@ -47771,7 +47657,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>536</v>
       </c>
@@ -47801,7 +47687,7 @@
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>537</v>
       </c>
@@ -47831,7 +47717,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>538</v>
       </c>
@@ -47861,7 +47747,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>539</v>
       </c>
@@ -47891,7 +47777,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>540</v>
       </c>
@@ -47921,7 +47807,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>541</v>
       </c>
@@ -47951,7 +47837,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>542</v>
       </c>
@@ -47981,7 +47867,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>543</v>
       </c>
@@ -48011,7 +47897,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>544</v>
       </c>
@@ -48041,7 +47927,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>545</v>
       </c>
@@ -48071,7 +47957,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>546</v>
       </c>
@@ -48101,7 +47987,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>547</v>
       </c>
@@ -48131,7 +48017,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>548</v>
       </c>
@@ -48161,7 +48047,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>549</v>
       </c>
@@ -48191,7 +48077,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>550</v>
       </c>
@@ -48221,7 +48107,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>551</v>
       </c>
@@ -48251,7 +48137,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>552</v>
       </c>
@@ -48281,7 +48167,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>553</v>
       </c>
@@ -48311,7 +48197,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>554</v>
       </c>
@@ -48341,7 +48227,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>555</v>
       </c>
@@ -48371,7 +48257,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>556</v>
       </c>
@@ -48401,7 +48287,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>557</v>
       </c>
@@ -48431,7 +48317,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>558</v>
       </c>
@@ -48461,7 +48347,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>559</v>
       </c>
@@ -48491,7 +48377,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>560</v>
       </c>
@@ -48521,7 +48407,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>561</v>
       </c>
@@ -48551,7 +48437,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>562</v>
       </c>
@@ -48581,7 +48467,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>563</v>
       </c>
@@ -48611,7 +48497,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>564</v>
       </c>
@@ -48641,7 +48527,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>565</v>
       </c>
@@ -48671,7 +48557,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>566</v>
       </c>
@@ -48701,7 +48587,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>567</v>
       </c>
@@ -48731,7 +48617,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>568</v>
       </c>
@@ -48761,7 +48647,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>569</v>
       </c>
@@ -48791,7 +48677,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>570</v>
       </c>
@@ -48821,7 +48707,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>571</v>
       </c>
@@ -48851,7 +48737,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>572</v>
       </c>
@@ -48881,7 +48767,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>573</v>
       </c>
@@ -48911,7 +48797,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>574</v>
       </c>
@@ -48941,7 +48827,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>575</v>
       </c>
@@ -48971,7 +48857,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>576</v>
       </c>
@@ -49001,7 +48887,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>577</v>
       </c>
@@ -49031,7 +48917,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>578</v>
       </c>
@@ -49061,7 +48947,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>579</v>
       </c>
@@ -49091,7 +48977,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>580</v>
       </c>
@@ -49121,7 +49007,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>581</v>
       </c>
@@ -49151,7 +49037,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>582</v>
       </c>
@@ -49181,7 +49067,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>583</v>
       </c>
@@ -49211,7 +49097,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>584</v>
       </c>
@@ -49241,7 +49127,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>585</v>
       </c>
@@ -49271,7 +49157,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>586</v>
       </c>
@@ -49301,7 +49187,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>587</v>
       </c>
@@ -49331,7 +49217,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>588</v>
       </c>
@@ -49361,7 +49247,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>589</v>
       </c>
@@ -49391,7 +49277,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>590</v>
       </c>
@@ -49421,7 +49307,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>591</v>
       </c>
@@ -49451,7 +49337,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>592</v>
       </c>
@@ -49481,7 +49367,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>593</v>
       </c>
@@ -49511,7 +49397,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>594</v>
       </c>
@@ -49541,7 +49427,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>595</v>
       </c>
@@ -49571,7 +49457,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>596</v>
       </c>
@@ -49601,7 +49487,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>597</v>
       </c>
@@ -49631,7 +49517,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>598</v>
       </c>
@@ -49661,7 +49547,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>599</v>
       </c>
@@ -49691,7 +49577,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>600</v>
       </c>
@@ -49721,7 +49607,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>601</v>
       </c>
@@ -49751,7 +49637,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>602</v>
       </c>
@@ -49781,7 +49667,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>603</v>
       </c>
@@ -49811,7 +49697,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>604</v>
       </c>
@@ -49841,7 +49727,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>605</v>
       </c>
@@ -49871,7 +49757,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>606</v>
       </c>
@@ -49901,7 +49787,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>607</v>
       </c>
@@ -49931,7 +49817,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>608</v>
       </c>
@@ -49961,7 +49847,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>609</v>
       </c>
@@ -49991,7 +49877,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>610</v>
       </c>
@@ -50021,7 +49907,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>611</v>
       </c>
@@ -50051,7 +49937,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>612</v>
       </c>
@@ -50081,7 +49967,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>613</v>
       </c>
@@ -50111,7 +49997,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>614</v>
       </c>
@@ -50141,7 +50027,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>615</v>
       </c>
@@ -50171,7 +50057,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>616</v>
       </c>
@@ -50201,7 +50087,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>617</v>
       </c>
@@ -50231,7 +50117,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>618</v>
       </c>
@@ -50261,7 +50147,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>619</v>
       </c>
@@ -50291,7 +50177,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>620</v>
       </c>
@@ -50321,7 +50207,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>621</v>
       </c>
@@ -50351,7 +50237,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>622</v>
       </c>
@@ -50381,7 +50267,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>623</v>
       </c>
@@ -50411,7 +50297,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>624</v>
       </c>
@@ -50441,7 +50327,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>625</v>
       </c>
@@ -50471,7 +50357,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>626</v>
       </c>
@@ -50501,7 +50387,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>627</v>
       </c>
@@ -50531,7 +50417,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>628</v>
       </c>
@@ -50561,7 +50447,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>629</v>
       </c>
@@ -50591,7 +50477,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>630</v>
       </c>
@@ -50621,7 +50507,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>631</v>
       </c>
@@ -50651,7 +50537,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>632</v>
       </c>
@@ -50681,7 +50567,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>633</v>
       </c>
@@ -50711,7 +50597,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>634</v>
       </c>
@@ -50741,7 +50627,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>635</v>
       </c>
@@ -50771,7 +50657,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>636</v>
       </c>
@@ -50801,7 +50687,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>637</v>
       </c>
@@ -50831,7 +50717,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>638</v>
       </c>
@@ -50861,7 +50747,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>639</v>
       </c>
@@ -50891,7 +50777,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>640</v>
       </c>
@@ -50921,7 +50807,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>641</v>
       </c>
@@ -50951,7 +50837,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>642</v>
       </c>
@@ -50981,7 +50867,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>643</v>
       </c>
@@ -51011,7 +50897,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>644</v>
       </c>
@@ -51041,7 +50927,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>645</v>
       </c>
@@ -51071,7 +50957,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>646</v>
       </c>
@@ -51101,7 +50987,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>647</v>
       </c>
@@ -51131,7 +51017,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>648</v>
       </c>
@@ -51161,7 +51047,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>649</v>
       </c>
@@ -51191,7 +51077,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>650</v>
       </c>
@@ -51221,7 +51107,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>651</v>
       </c>
@@ -51251,7 +51137,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>652</v>
       </c>
@@ -51281,7 +51167,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>653</v>
       </c>
@@ -51311,7 +51197,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>654</v>
       </c>
@@ -51341,7 +51227,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>655</v>
       </c>
@@ -51371,7 +51257,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>656</v>
       </c>
@@ -51401,7 +51287,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>657</v>
       </c>
@@ -51431,7 +51317,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>658</v>
       </c>
@@ -51461,7 +51347,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>659</v>
       </c>
@@ -51491,7 +51377,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>660</v>
       </c>
@@ -51521,7 +51407,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>661</v>
       </c>
@@ -51551,7 +51437,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>662</v>
       </c>
@@ -51581,7 +51467,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>663</v>
       </c>
@@ -51611,7 +51497,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>664</v>
       </c>
@@ -51641,7 +51527,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>665</v>
       </c>
@@ -51671,7 +51557,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>666</v>
       </c>
@@ -51701,7 +51587,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>667</v>
       </c>
@@ -51731,7 +51617,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>668</v>
       </c>
@@ -51761,7 +51647,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>669</v>
       </c>
@@ -51791,7 +51677,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>670</v>
       </c>
@@ -51821,7 +51707,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>671</v>
       </c>
@@ -51851,7 +51737,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>672</v>
       </c>
@@ -51881,7 +51767,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>673</v>
       </c>
@@ -51911,7 +51797,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>674</v>
       </c>
@@ -51941,7 +51827,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>675</v>
       </c>
@@ -51971,7 +51857,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>676</v>
       </c>
@@ -52001,7 +51887,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>677</v>
       </c>
@@ -52031,7 +51917,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>678</v>
       </c>
@@ -52061,7 +51947,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>679</v>
       </c>
@@ -52091,7 +51977,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>680</v>
       </c>
@@ -52121,7 +52007,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>681</v>
       </c>
@@ -52151,7 +52037,7 @@
         <v>0.871</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>682</v>
       </c>
@@ -52181,7 +52067,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>683</v>
       </c>
@@ -52241,7 +52127,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>685</v>
       </c>
@@ -52271,7 +52157,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>686</v>
       </c>
@@ -52301,7 +52187,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>687</v>
       </c>
@@ -52331,7 +52217,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>688</v>
       </c>
@@ -52361,7 +52247,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>689</v>
       </c>
@@ -52391,7 +52277,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>690</v>
       </c>
@@ -52421,7 +52307,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>691</v>
       </c>
@@ -52451,7 +52337,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>692</v>
       </c>
@@ -52481,7 +52367,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>693</v>
       </c>
@@ -52511,7 +52397,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>694</v>
       </c>
@@ -52541,7 +52427,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>695</v>
       </c>
@@ -52571,7 +52457,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>696</v>
       </c>
@@ -52601,7 +52487,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>697</v>
       </c>
@@ -52631,7 +52517,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>698</v>
       </c>
@@ -52661,7 +52547,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>699</v>
       </c>
@@ -52691,7 +52577,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>700</v>
       </c>
@@ -52721,7 +52607,7 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>701</v>
       </c>
@@ -52751,7 +52637,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>702</v>
       </c>
@@ -52781,7 +52667,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>703</v>
       </c>
@@ -52811,7 +52697,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>704</v>
       </c>
@@ -52841,7 +52727,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>705</v>
       </c>
@@ -52871,7 +52757,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>706</v>
       </c>
@@ -52901,7 +52787,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>707</v>
       </c>
@@ -52931,7 +52817,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>708</v>
       </c>
@@ -52961,7 +52847,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>709</v>
       </c>
@@ -52991,7 +52877,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>710</v>
       </c>
@@ -53021,7 +52907,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>711</v>
       </c>
@@ -53051,7 +52937,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>712</v>
       </c>
@@ -53081,7 +52967,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>713</v>
       </c>
@@ -53111,7 +52997,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>714</v>
       </c>
@@ -53141,7 +53027,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>715</v>
       </c>
@@ -53171,7 +53057,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>716</v>
       </c>
@@ -53201,7 +53087,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>717</v>
       </c>
@@ -53231,7 +53117,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>718</v>
       </c>
@@ -53261,7 +53147,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>719</v>
       </c>
@@ -53291,7 +53177,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>720</v>
       </c>
@@ -53321,7 +53207,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>721</v>
       </c>
@@ -53351,7 +53237,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>722</v>
       </c>
@@ -53381,7 +53267,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>723</v>
       </c>
@@ -53411,7 +53297,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>724</v>
       </c>
@@ -53441,7 +53327,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>725</v>
       </c>
@@ -53471,7 +53357,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>726</v>
       </c>
@@ -53501,7 +53387,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>727</v>
       </c>
@@ -53531,7 +53417,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>728</v>
       </c>
@@ -53561,7 +53447,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>729</v>
       </c>
@@ -53591,7 +53477,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>730</v>
       </c>
@@ -53621,7 +53507,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>731</v>
       </c>
@@ -53651,7 +53537,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>732</v>
       </c>
@@ -53681,7 +53567,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>733</v>
       </c>
@@ -53711,7 +53597,7 @@
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>734</v>
       </c>
@@ -53741,7 +53627,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>735</v>
       </c>
@@ -53771,7 +53657,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>736</v>
       </c>
@@ -53801,7 +53687,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>737</v>
       </c>
@@ -53831,7 +53717,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>738</v>
       </c>
@@ -53861,7 +53747,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>739</v>
       </c>
@@ -53891,7 +53777,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>740</v>
       </c>
@@ -53921,7 +53807,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>741</v>
       </c>
@@ -53951,7 +53837,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>742</v>
       </c>
@@ -53981,7 +53867,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>743</v>
       </c>
@@ -54011,7 +53897,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>744</v>
       </c>
@@ -54041,7 +53927,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>745</v>
       </c>
@@ -54071,7 +53957,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>746</v>
       </c>
@@ -54101,7 +53987,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>747</v>
       </c>
@@ -54131,7 +54017,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>748</v>
       </c>
@@ -54161,7 +54047,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>749</v>
       </c>
@@ -54191,7 +54077,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>750</v>
       </c>
@@ -54221,7 +54107,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>751</v>
       </c>
@@ -54251,7 +54137,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>752</v>
       </c>
@@ -54282,6 +54168,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H741" xr:uid="{E26FCA09-08BA-4F55-A79A-367B42405110}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/car_price.xlsx
+++ b/car_price.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kmaun\data\Git\Project\vehicle_sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA02BF0-FFCB-4B82-8ACB-475C3B433711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A39E19A-8412-4C4E-BC34-29990A0924A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{93350E34-2814-477A-9D86-9DAC5C996294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$H$741</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="779">
   <si>
     <t>Released Price of the car</t>
   </si>
@@ -2361,12 +2361,6 @@
     <t xml:space="preserve">Please enter the details of the car you wish to buy into </t>
   </si>
   <si>
-    <t>the Used Car Information Table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car Score 10 MAX </t>
-  </si>
-  <si>
     <t>Used Car Price</t>
   </si>
   <si>
@@ -2376,10 +2370,74 @@
     <t>Used Car Price Valuation</t>
   </si>
   <si>
-    <t>Percentile</t>
-  </si>
-  <si>
-    <t>)</t>
+    <t>Car Score</t>
+  </si>
+  <si>
+    <t>Car Metric</t>
+  </si>
+  <si>
+    <t>3. The used car price you want to buy</t>
+  </si>
+  <si>
+    <t>Car Metric explanation</t>
+  </si>
+  <si>
+    <t>and vice versa.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Car score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  to measure how good the car is to buy considering price, unit sold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Used Car Price Valuation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: to indicate how expensive or cheap the car is, </t>
+    </r>
+  </si>
+  <si>
+    <t>which compared to fair price.</t>
+  </si>
+  <si>
+    <t>4. Car model name</t>
+  </si>
+  <si>
+    <t>the Used Car Information Table and enter car model name in car search box.</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2448,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2490,6 +2548,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2583,7 +2665,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2641,8 +2723,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2784,6 +2869,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF66FF99"/>
     </mruColors>
   </colors>
@@ -3449,8 +3536,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -3488,7 +3575,7 @@
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A3" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E3" s="11"/>
       <c r="L3" s="16"/>
@@ -3498,11 +3585,6 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O6" s="4" t="s">
-        <v>771</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
@@ -3513,11 +3595,7 @@
         <v>759</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="O7" s="4">
-        <f>_xlfn.XLOOKUP(N7,Data!$A:$A,Data!$F:$F,0,2,)</f>
-        <v>-90.679859525343502</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -3561,56 +3639,56 @@
         <v>764</v>
       </c>
       <c r="F10" s="22" t="str" cm="1">
-        <f t="array" ref="F10:M11">IFERROR(_xlfn._xlws.FILTER(car_data3[], ISNUMBER(SEARCH(N7, car_data3[Car name]))), "NOT MATCH FOUND")</f>
-        <v>nissan altima</v>
+        <f t="array" ref="F10:M12">IFERROR(_xlfn._xlws.FILTER(car_data3[], ISNUMBER(SEARCH(N7, car_data3[Car name]))), "NOT MATCH FOUND")</f>
+        <v>audi tt</v>
       </c>
       <c r="G10" s="22">
-        <v>-7.94604314054454</v>
+        <v>156.81169708798299</v>
       </c>
       <c r="H10" s="22">
-        <v>-21.821243216292501</v>
+        <v>11.5819209039547</v>
       </c>
       <c r="I10" s="22">
-        <v>-60.912573168506398</v>
+        <v>-40.254237288135499</v>
       </c>
       <c r="J10" s="22">
-        <v>19349</v>
+        <v>128</v>
       </c>
       <c r="K10" s="23">
-        <v>-90.679859525343502</v>
+        <v>128.139380703803</v>
       </c>
       <c r="L10" s="24">
-        <v>14933.5961538461</v>
+        <v>11800</v>
       </c>
       <c r="M10" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
-        <v>765</v>
+      <c r="A11" s="31" t="s">
+        <v>771</v>
       </c>
       <c r="B11" s="26"/>
       <c r="F11" s="22" t="str">
-        <v>nissan altima hybrid</v>
+        <v>audi tt rs</v>
       </c>
       <c r="G11" s="22">
         <v>156.81169708798299</v>
       </c>
       <c r="H11" s="22">
-        <v>164.88095238095201</v>
+        <v>190.20904684673701</v>
       </c>
       <c r="I11" s="22">
-        <v>70.578231292517003</v>
+        <v>103.948132528778</v>
       </c>
       <c r="J11" s="22">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="K11" s="23">
-        <v>392.27088076145299</v>
-      </c>
-      <c r="L11" s="24">
-        <v>4200</v>
+        <v>450.96887646350001</v>
+      </c>
+      <c r="L11" s="24" t="str">
+        <v>-</v>
       </c>
       <c r="M11" s="22">
         <v>7</v>
@@ -3618,19 +3696,38 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>766</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="22"/>
+      <c r="A12" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="F12" s="22" t="str">
+        <v>audi tts</v>
+      </c>
+      <c r="G12" s="22">
+        <v>7.73722627737226</v>
+      </c>
+      <c r="H12" s="22">
+        <v>190.20904684673701</v>
+      </c>
+      <c r="I12" s="22">
+        <v>103.948132528778</v>
+      </c>
+      <c r="J12" s="22">
+        <v>6</v>
+      </c>
+      <c r="K12" s="23">
+        <v>301.89440565288902</v>
+      </c>
+      <c r="L12" s="24">
+        <v>34250</v>
+      </c>
+      <c r="M12" s="22">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>765</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -3641,6 +3738,9 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>778</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -3650,11 +3750,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
-        <v>760</v>
-      </c>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -3664,16 +3760,11 @@
       <c r="L15" s="24"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="12">
-        <v>10000</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>3</v>
-      </c>
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -3685,13 +3776,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="12">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -3704,10 +3795,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="B18" s="12">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
@@ -3722,6 +3813,15 @@
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="B19" s="12">
+        <v>65000</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -3731,11 +3831,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -3745,17 +3841,11 @@
       <c r="L20" s="24"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7">
-        <f>$B$23*0.75</f>
-        <v>14000</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -3767,11 +3857,11 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="7">
-        <f>$B$23*0.9</f>
-        <v>16800</v>
+        <f>$B$24*0.75</f>
+        <v>36250</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>4</v>
@@ -3787,11 +3877,11 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7">
-        <f>(1-(B16/150000)) * B17</f>
-        <v>18666.666666666668</v>
+        <f>$B$24*0.9</f>
+        <v>43500</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
@@ -3807,11 +3897,11 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B24" s="7">
-        <f>$B$23*1.1</f>
-        <v>20533.333333333336</v>
+        <f>(1-(B17/150000)) * B18</f>
+        <v>48333.333333333336</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
@@ -3827,11 +3917,11 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B25" s="7">
-        <f>$B$23*1.25</f>
-        <v>23333.333333333336</v>
+        <f>$B$24*1.1</f>
+        <v>53166.666666666672</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
@@ -3846,6 +3936,16 @@
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7">
+        <f>$B$24*1.25</f>
+        <v>60416.666666666672</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -3856,12 +3956,35 @@
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B27" s="34">
-        <f>(1 - (B18 - B21) / (B25 - B21)) * 10 * 0.4 +
-_xlfn.PERCENTRANK.EXC(car_data3[feature], _xlfn.XLOOKUP(N7, car_data3[Car name], car_data3[feature])) * 10 * 0.2 +
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" s="33">
+        <f>(1 - (B19 - B22) / (B26 - B22)) * 10 * 0.5 +
+_xlfn.PERCENTRANK.EXC(car_data3[feature], _xlfn.XLOOKUP(N7, car_data3[Car name], car_data3[feature])) * 10 * 0.1 +
 _xlfn.PERCENTRANK.EXC(car_data3[sold_cars], _xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[sold_cars])) * 10 * 0.2 +
 IFERROR(
     IF(OR(_xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 4, _xlfn.XLOOKUP($N$7, car_data3[Car name], car_data3[cluster_label], , 0) = 8),
@@ -3885,42 +4008,9 @@
     ),
     0
 ) * 0.2</f>
-        <v>7.8474285714285719</v>
-      </c>
-      <c r="C27" s="4">
-        <v>40</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B28" s="33">
-        <f>-(1-(B18/B23))</f>
-        <v>-0.19642857142857151</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <f>IF(B28&gt;0,"Overvalued",IF(B28&lt;0,"Undervalued", "Fair Price"))</f>
-        <v>Undervalued</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.41972413793103569</v>
+      </c>
+      <c r="C29" s="6"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -3931,6 +4021,17 @@
       <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="B30" s="34">
+        <f>-(1-(B19/B24))</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>IF(B30&gt;0,"Overvalued",IF(B30&lt;0,"Undervalued", "Fair Price"))</f>
+        <v>Overvalued</v>
+      </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -3941,6 +4042,7 @@
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="35"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -3950,7 +4052,10 @@
       <c r="L31" s="24"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="37" t="s">
+        <v>772</v>
+      </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -3960,7 +4065,10 @@
       <c r="L32" s="24"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>774</v>
+      </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -3970,7 +4078,10 @@
       <c r="L33" s="24"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>773</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -3980,7 +4091,10 @@
       <c r="L34" s="24"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>775</v>
+      </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -3990,7 +4104,10 @@
       <c r="L35" s="24"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>776</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -4000,7 +4117,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -4010,7 +4127,7 @@
       <c r="L37" s="24"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -4020,7 +4137,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -4030,7 +4147,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="22"/>
     </row>
-    <row r="40" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
@@ -4040,7 +4157,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="22"/>
     </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
@@ -4050,7 +4167,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="22"/>
     </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -4060,7 +4177,7 @@
       <c r="L42" s="24"/>
       <c r="M42" s="22"/>
     </row>
-    <row r="43" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -4070,7 +4187,7 @@
       <c r="L43" s="24"/>
       <c r="M43" s="22"/>
     </row>
-    <row r="44" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -4080,7 +4197,7 @@
       <c r="L44" s="24"/>
       <c r="M44" s="22"/>
     </row>
-    <row r="45" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -4090,7 +4207,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="22"/>
     </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
@@ -4100,7 +4217,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="22"/>
     </row>
-    <row r="47" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -4110,7 +4227,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="22"/>
     </row>
-    <row r="48" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
@@ -4120,7 +4237,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="22"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
@@ -4130,7 +4247,7 @@
       <c r="L49" s="24"/>
       <c r="M49" s="22"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
@@ -4140,7 +4257,7 @@
       <c r="L50" s="24"/>
       <c r="M50" s="22"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
@@ -4150,7 +4267,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="22"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
@@ -4160,7 +4277,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="22"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
@@ -4170,7 +4287,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="22"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
@@ -4180,10 +4297,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="22"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B55" s="4" t="s">
-        <v>772</v>
-      </c>
+    <row r="55" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
@@ -4193,7 +4307,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="22"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
@@ -4203,7 +4317,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="22"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
@@ -4213,7 +4327,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="22"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
@@ -4223,7 +4337,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="22"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
@@ -4233,7 +4347,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="22"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
@@ -4243,7 +4357,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="22"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
@@ -4253,7 +4367,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="22"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
@@ -4263,7 +4377,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="22"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
@@ -4273,7 +4387,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="22"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
@@ -11534,8 +11648,8 @@
       <c r="M789" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B21:B25">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="B22:B26">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11546,22 +11660,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>B28&lt;0</formula>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>B30&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>B28&gt;0</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>B30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:M27 F29:M789 G28:M28">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+  <conditionalFormatting sqref="F9:M789">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:M27 F29:M789 G28:M28">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="F10:M789">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>N7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11602,7 +11728,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H781"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
